--- a/data/BiCRS CDR/20231205 Regional Summary.xlsx
+++ b/data/BiCRS CDR/20231205 Regional Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/aui1_llnl_gov/Documents/GTN/Analysis Regional/20231113/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexstanley/Desktop/cdr_maps/data/BiCRS CDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{88417201-8BB0-D34E-A59D-756F1050D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07585C91-51C6-4E26-BBD8-80D97B53BD75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD819DB-8FDA-384F-8935-D4D8701BDB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="225" windowWidth="25245" windowHeight="15180" xr2:uid="{F6D07389-0E96-F846-9399-B9A09C2AF151}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{F6D07389-0E96-F846-9399-B9A09C2AF151}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional cost CDR Dry only" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Regional cost and CDR Wet only" sheetId="4" r:id="rId3"/>
     <sheet name="CO2 by transport mode" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,23 +557,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0652CE-42A0-664B-9831-B2661D90FE92}">
   <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>51.270093144526179</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -638,7 +638,7 @@
         <v>493826314.94433022</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>235009684.05848506</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>857305071.10526681</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1048292351.3783965</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -706,7 +706,7 @@
         <v>612852750.13762069</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
         <v>828049012.02282405</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -740,8 +740,8 @@
         <v>986523938.42840874</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
         <v>155.87106051744144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -781,7 +781,7 @@
         <v>180.58724248282451</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -798,7 +798,7 @@
         <v>230774244.69858202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>237488382.62644401</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -832,7 +832,7 @@
         <v>236624341.18038794</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -849,7 +849,7 @@
         <v>237772074.60570973</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -866,7 +866,7 @@
         <v>489175875.44963098</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -883,7 +883,7 @@
         <v>480100044.44927001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -900,7 +900,7 @@
         <v>493685446.49037743</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -917,8 +917,8 @@
         <v>490269657.30919337</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -942,7 +942,7 @@
         <v>88.767965322455041</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -958,7 +958,7 @@
         <v>108.18742835901061</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -975,7 +975,7 @@
         <v>490996925.73579216</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -992,7 +992,7 @@
         <v>493103251.997132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>488239232.17002541</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>486849915.72677404</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>484721336.8816641</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>483703712.61609542</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>489430320.56651974</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>489891139.37918276</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>481543685.12611872</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>482296544.55058897</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>486973503.0219866</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>486810035.01237875</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>56.8192838022403</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>492923810.42273068</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>492531542.3545</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>493418651.3368696</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>493399199.76896673</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>493957862.54738331</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>493803133.27706337</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>493793096.10063845</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>493836275.53801453</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>70.561465365534858</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>486162372.3479746</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>489345104.62512809</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>486768637.82444298</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>487104026.52452439</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>57.025244655916808</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>480605057.12644482</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>483844242.26830745</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>474853035.52256083</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>472573921.48627514</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>479963956.29817879</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>482980195.4877702</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>485071310.14731693</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>475203437.75968671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>484688532.69564927</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>478502607.51987696</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>478556446.64093649</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>489897399.80245763</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>493564648.9414928</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>487557400.13980448</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>492267218.32816571</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>493910536.20879787</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>493963812.40534908</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>493962731.33035827</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1325990168.7893608</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -1778,8 +1778,8 @@
         <v>1069852215.8681318</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>96.005114499162701</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>161.69837896622212</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>484861116.1623441</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>484222311.07677376</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>484329705.32557786</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>480531794.63067722</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>480048447.22889858</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>485966207.70565629</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>478800332.13449538</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>479522641.66712451</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>486879330.65479958</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>481077376.88226342</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>484613814.88202757</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>482009163.83867985</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>480527907.45337802</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>482008468.2369566</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>476189366.17597544</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>485464712.94098842</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>485631283.94499302</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>476506199.82294345</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>483220139.75954688</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>476274385.67517668</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>484926739.23368955</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>484034518.41560066</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>486460475.54740077</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>486592026.9747262</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>480399442.1667186</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>471117726.75899154</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>482969467.33308744</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>484014532.36661696</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>477781677.30015731</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>485395373.70165932</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>471492421.57362962</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>482174075.05889928</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>486513821.24185437</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>474476740.54371142</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>486898508.27041531</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>487477465.1210205</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>487619797.31182778</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>85.847779543347372</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>489185623.84108901</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>485213319.01448548</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>487248418.12688321</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>487314356.46996903</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>485611224.79802507</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>488036726.28622556</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>482259450.08861244</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>480851208.90751195</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>480636470.62908828</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>486651417.80238938</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>484561836.07624292</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>485371680.05949324</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>481830807.2232514</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>484499720.4795509</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>486911359.48220342</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>481264685.94577646</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>486920120.20998269</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>483416569.43491304</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>482429355.23566216</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>483537944.16283846</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>481963025.37673873</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>483756337.31269962</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>482241987.94224</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>484395821.60903555</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>483656218.74221671</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>489115979.61698562</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>489074259.62605441</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>68.538664988891028</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>481235669.2894206</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>481741437.27322853</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>477167499.07200813</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>486665378.28796327</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>487480681.59149933</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>482214696.38695943</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>479380260.01867634</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>479022261.58624923</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>482493897.09581614</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>475560301.23358881</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>472727976.28436279</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>474363584.33273304</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>471787768.176916</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>486193562.89353365</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>487040213.99073386</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>472580649.43470359</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>472617416.58332211</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>18</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>485797023.51140475</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1212727823.2897782</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -3295,8 +3295,8 @@
         <v>1265794538.5252066</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>95.890340244635482</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>168.64836977465743</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>490329081.55664313</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>484437519.8358295</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>481928002.44286776</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>484670648.94651759</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>485025012.70804685</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>486495869.43124157</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>486724411.56410152</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>488406147.68254614</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>484724472.81552231</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>486286853.35086989</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>487143887.33259583</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>487736291.9282915</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>488530729.67145109</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>487699856.48191476</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>483956321.8808192</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>485314009.90072811</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -3625,8 +3625,8 @@
         <v>1590612330.0971928</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>76.655364220191018</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>124.57442805719052</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>488422142.08880389</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>486973642.82327187</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>486110867.83351207</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>486592416.56979048</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>486943831.81694663</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>487282383.34174776</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>488376930.90974253</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>488656248.60290074</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1143321514.8587561</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -3836,8 +3836,8 @@
         <v>1067786547.4824102</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>103.84315440225775</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>189.54657904708478</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>487506623.03425252</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>485270991.66610789</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>486536298.79721755</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>486179305.5676384</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>487036417.60607123</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>486755902.3134051</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>486464469.78154629</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>484960745.61216235</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>486898097.41074693</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>486920311.82450217</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>484276552.83269942</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>484883182.55456096</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>485043264.9881891</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>485484363.48428863</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>485335329.81009036</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>487511930.945786</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>485936337.87575781</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>484117464.04171818</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>485723489.0553205</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>485480393.73438239</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>487806186.21705902</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>485152776.55100554</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>486720673.21205372</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>487041019.25152916</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>483394178.05601102</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>487130290.43562227</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>485454899.20436531</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>484966976.91631818</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>488085134.48871124</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>481376731.52785754</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>486798608.08755958</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>483808687.32102835</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>484686262.80490035</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>486935978.05787593</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>486806851.35212815</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>487310598.50043076</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>484080795.22817731</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>480845969.84499651</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>485427422.12953734</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>487382641.1446811</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>487370941.75111896</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>484646050.89611501</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1597439921.0600612</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1379101805.6679335</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>1172236623.2256408</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -4659,8 +4659,8 @@
         <v>1154424477.3945222</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>81.813623928384573</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>141.22973719265985</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>22</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>483455965.1950978</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>22</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>481662999.11022031</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>22</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>483228419.38976264</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>481164131.79473555</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>476833289.68980038</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>22</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>483940544.99257088</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>477509798.40495825</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>477575245.95221937</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>483687243.60059142</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>485431741.46245229</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>22</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>75.335427800945666</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>482655628.26197481</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>479016299.97470284</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>23</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>481143273.77811968</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>23</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>472946062.15432519</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>482925686.98672247</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>481153653.14462411</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>474198780.71907133</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>485537667.7744354</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>23</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>480154550.96419829</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1181572978.8802221</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1179997883.9744761</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1173090545.2146935</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>23</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1169253811.5478821</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>23</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>1172539089.3889952</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>1171158536.7234015</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>1170711708.0699439</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1171251192.3676565</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>1171325315.7249074</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1174325954.2413051</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>23</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1173541476.8569291</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1180517362.6312511</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1171866632.9586341</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>23</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>1171097182.5882516</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>23</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1171931403.5063019</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>23</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1180831929.4570954</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>938816446.62697554</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1180393976.069351</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>23</v>
       </c>
@@ -5370,8 +5370,8 @@
         <v>1054580027.9940313</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>138.1397556218792</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>163.3050371775532</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>477854779.17519563</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>24</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>489997840.96490389</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>480963842.16967905</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>476807378.24830282</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>24</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>493911494.07091308</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>92.152313506791231</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>25</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>493540564.52421343</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>25</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>493874655.18466413</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>25</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>493732823.74879503</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>493964498.42211342</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>25</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>493963812.40534997</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>25</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>493616638.57177269</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>25</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>493809539.68927622</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>25</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>493710630.25503302</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>25</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1219815465.4324236</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>25</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>1233881121.4536572</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>25</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1112993279.8139226</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>25</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>1148165406.9813182</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>25</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1251466444.2971206</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>25</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1240045523.6142371</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>25</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1077210073.1406534</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>25</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1233089866.2615707</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>25</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1257763689.9295678</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>25</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>1251160211.9993858</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>25</v>
       </c>
@@ -5843,8 +5843,8 @@
         <v>1254484258.306915</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>25</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>129.00079599733675</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>25</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>160.51367590178546</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>26</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>486684483.30910349</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>26</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>488512224.13020629</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>487848924.16858548</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>487022310.97716844</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>487281088.05314189</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>26</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>486643947.33041513</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>26</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>488153275.20303386</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>488648196.97887468</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>83.330119446646862</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>27</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>478842954.54455543</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>27</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>473528110.82683855</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>473415466.45893699</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>27</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>477702862.95040172</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>27</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>472375420.17147332</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>27</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>475871299.80503374</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>472455320.95090884</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>474925415.12995273</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>470545512.33477443</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>470480374.43619257</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>481986746.7102406</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>27</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>471823244.68478036</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>474475465.86062998</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>471981943.42375988</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>476926578.57870519</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>474185003.5740937</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>471006107.56969631</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>471191601.23437363</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>471874334.02358758</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>474394472.78735912</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>471928529.15251637</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>471542621.10096604</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>481620616.05309063</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>476626987.68991524</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>471504370.57629746</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>470154587.82912368</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>27</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>469718570.72801596</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>27</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>470077058.53593528</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>484121878.61049515</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>470796815.408216</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>470284994.87919235</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>27</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>84.024215236905874</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>494494886.92420936</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>28</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>491069312.27925116</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>493795283.50767612</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>28</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>492222635.56919897</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>28</v>
       </c>
@@ -6697,22 +6697,22 @@
   <dimension ref="A1:G438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>81.628546480187993</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>493826314.94433022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>181.24787212285401</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1368.8602380034499</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>15.1256923470008</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>69.413540065815198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>235009684.05848506</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>857305071.10526681</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>1048292351.3783965</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>612852750.13762069</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>828049012.02282405</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6935,8 +6935,8 @@
         <v>986523938.42840874</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>222.3564856615379</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>180.58724248282451</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1602.25533066146</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>172.087312472745</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>230774244.69858202</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>237488382.62644401</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>236624341.18038794</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>237772074.60570973</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>489175875.44963098</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>480100044.44927001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>493685446.49037743</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7140,8 +7140,8 @@
         <v>490269657.30919337</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>129.82144893889466</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>108.18742835901061</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>261.23137135069601</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1677.11523497743</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>26.939974851498999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>153.022423955672</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>490996925.73579216</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>493103251.997132</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>488239232.17002541</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>486849915.72677404</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>484721336.8816641</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>483703712.61609542</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>489430320.56651974</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>489891139.37918276</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>481543685.12611872</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>482296544.55058897</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>486973503.0219866</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>486810035.01237875</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>78.176075655265038</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>270.39907256050498</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>2226.32601294287</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>118.123922902488</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>492923810.42273068</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>492531542.3545</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>493418651.3368696</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>493399199.76896673</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>493957862.54738331</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>493803133.27706337</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>493793096.10063845</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>493836275.53801453</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>169.98301679110349</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>234.12237966558399</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1662.8030748741701</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>107.89110293404001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>113.971148678001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>486162372.3479746</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>489345104.62512809</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>486768637.82444298</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>487104026.52452439</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>65.095662784032115</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>224.81007514481999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>130.07030457993599</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>480605057.12644482</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>483844242.26830745</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>474853035.52256083</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>472573921.48627514</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>479963956.29817879</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>482980195.4877702</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>485071310.14731693</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>475203437.75968671</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>484688532.69564927</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>478502607.51987696</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>478556446.64093649</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>489897399.80245763</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>493564648.9414928</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>487557400.13980448</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>492267218.32816571</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>493910536.20879787</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>493963812.40534908</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>493962731.33035827</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>1325990168.7893608</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -8183,8 +8183,8 @@
         <v>1069852215.8681318</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>119.45309980921729</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>161.69837896622212</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>278.95541636263602</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>1759.0525920011401</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>162.31847804357901</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>484861116.1623441</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>484222311.07677376</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>484329705.32557786</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>480531794.63067722</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>480048447.22889858</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>485966207.70565629</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>478800332.13449538</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>479522641.66712451</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>486879330.65479958</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>481077376.88226342</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>484613814.88202757</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>482009163.83867985</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>480527907.45337802</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>482008468.2369566</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>476189366.17597544</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>485464712.94098842</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>485631283.94499302</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>476506199.82294345</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>483220139.75954688</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>476274385.67517668</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>484926739.23368955</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>484034518.41560066</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>486460475.54740077</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>486592026.9747262</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>480399442.1667186</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>471117726.75899154</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>482969467.33308744</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>484014532.36661696</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>477781677.30015731</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>485395373.70165932</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>471492421.57362962</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>482174075.05889928</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>486513821.24185437</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>474476740.54371142</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>486898508.27041531</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>487477465.1210205</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>487619797.31182778</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>90.322681509375428</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>219.995652201111</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>2180.6458584704801</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>132.088671175543</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>489185623.84108901</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>485213319.01448548</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>487248418.12688321</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>487314356.46996903</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>485611224.79802507</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>488036726.28622556</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>482259450.08861244</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>480851208.90751195</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>480636470.62908828</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>486651417.80238938</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>484561836.07624292</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>485371680.05949324</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>481830807.2232514</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>484499720.4795509</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>486911359.48220342</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>481264685.94577646</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>486920120.20998269</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>483416569.43491304</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>482429355.23566216</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>483537944.16283846</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>481963025.37673873</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>483756337.31269962</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>482241987.94224</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>484395821.60903555</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>483656218.74221671</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>489115979.61698562</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>489074259.62605441</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>90.294223416379424</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>269.26797437034702</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1818.7482179082101</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>144.80815154387099</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>481235669.2894206</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>18</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>481741437.27322853</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>18</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>477167499.07200813</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>18</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>486665378.28796327</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>487480681.59149933</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>18</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>482214696.38695943</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>479380260.01867634</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>479022261.58624923</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>482493897.09581614</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>475560301.23358881</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>472727976.28436279</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>474363584.33273304</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>18</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>471787768.176916</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>18</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>486193562.89353365</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>18</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>487040213.99073386</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>472580649.43470359</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>472617416.58332211</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>485797023.51140475</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>1212727823.2897782</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -9826,8 +9826,8 @@
         <v>1265794538.5252066</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>218.08690820577149</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>168.64836977465743</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>333.39038180902799</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>1894.63662684</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>141.97117451491499</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>490329081.55664313</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>484437519.8358295</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>481928002.44286776</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>484670648.94651759</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>485025012.70804685</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>486495869.43124157</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>486724411.56410152</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>488406147.68254614</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>484724472.81552231</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>486286853.35086989</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>487143887.33259583</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>487736291.9282915</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>488530729.67145109</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>487699856.48191476</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>483956321.8808192</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>485314009.90072811</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -10198,8 +10198,8 @@
         <v>1590612330.0971928</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>86.5434324469758</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>124.57442805719052</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>262.949414587756</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1837.95639037007</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>140.71773853648</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>488422142.08880389</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>486973642.82327187</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>486110867.83351207</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>486592416.56979048</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>486943831.81694663</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>487282383.34174776</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>488376930.90974253</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>488656248.60290074</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1143321514.8587561</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -10451,8 +10451,8 @@
         <v>1067786547.4824102</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>138.93589538034828</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>189.54657904708478</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>2005.19518877562</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>168.263386674836</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>487506623.03425252</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>485270991.66610789</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>486536298.79721755</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>486179305.5676384</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>487036417.60607123</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>486755902.3134051</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>486464469.78154629</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>484960745.61216235</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>486898097.41074693</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>486920311.82450217</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>484276552.83269942</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>21</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>484883182.55456096</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>21</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>485043264.9881891</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>485484363.48428863</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>485335329.81009036</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>21</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>487511930.945786</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>485936337.87575781</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>484117464.04171818</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>485723489.0553205</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>21</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>485480393.73438239</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>487806186.21705902</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>485152776.55100554</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>486720673.21205372</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>487041019.25152916</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>21</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>483394178.05601102</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>487130290.43562227</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>485454899.20436531</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>484966976.91631818</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>488085134.48871124</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>481376731.52785754</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>486798608.08755958</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>483808687.32102835</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>21</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>484686262.80490035</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>486935978.05787593</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>21</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>486806851.35212815</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>21</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>487310598.50043076</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>484080795.22817731</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>21</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>480845969.84499651</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>21</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>485427422.12953734</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>21</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>487382641.1446811</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>487370941.75111896</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>21</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>484646050.89611501</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>1597439921.0600612</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>1379101805.6679335</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>21</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1172236623.2256408</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -11302,8 +11302,8 @@
         <v>1154424477.3945222</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>134.04826508341512</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>141.22973719265985</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>21</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>248.76713537502999</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>2035.0296867556101</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>21</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>33.419304368927101</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>21</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>126.21226570368501</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>22</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>483455965.1950978</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>481662999.11022031</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>483228419.38976264</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>22</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>481164131.79473555</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>476833289.68980038</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>22</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>483940544.99257088</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>22</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>477509798.40495825</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>22</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>477575245.95221937</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>483687243.60059142</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>22</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>485431741.46245229</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>22</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>75.562539744418359</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>22</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>257.52685215730901</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>22</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>93.666259072337397</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>23</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>482655628.26197481</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>479016299.97470284</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>23</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>481143273.77811968</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>23</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>472946062.15432519</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>23</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>482925686.98672247</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>23</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>481153653.14462411</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>23</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>474198780.71907133</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>23</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>485537667.7744354</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>23</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>480154550.96419829</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>23</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>1181572978.8802221</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>23</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>1179997883.9744761</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1173090545.2146935</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1169253811.5478821</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>23</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1172539089.3889952</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>1171158536.7234015</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1170711708.0699439</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>23</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>1171251192.3676565</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>23</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>1171325315.7249074</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>1174325954.2413051</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>1173541476.8569291</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>23</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>1180517362.6312511</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>23</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>1171866632.9586341</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>23</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>1171097182.5882516</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1171931403.5063019</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>1180831929.4570954</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>23</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>938816446.62697554</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1180393976.069351</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -12097,8 +12097,8 @@
         <v>1054580027.9940313</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>214.47574820327461</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>163.3050371775532</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>23</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>257.632679139174</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>1929.4742386059499</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>154.34582974967401</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>477854779.17519563</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>489997840.96490389</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>480963842.16967905</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>476807378.24830282</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>493911494.07091308</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>92.152313506791231</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>25</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>493540564.52421343</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>25</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>493874655.18466413</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>25</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>493732823.74879503</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>25</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>493964498.42211342</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>25</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>493963812.40534997</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>25</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>493616638.57177269</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>25</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>493809539.68927622</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>25</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>493710630.25503302</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>25</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1219815465.4324236</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>1233881121.4536572</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>25</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>1112993279.8139226</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>25</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1148165406.9813182</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>25</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>1251466444.2971206</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>25</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>1240045523.6142371</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>1077210073.1406534</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>25</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>1233089866.2615707</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>1257763689.9295678</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>25</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>1251160211.9993858</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>25</v>
       </c>
@@ -12612,8 +12612,8 @@
         <v>1254484258.306915</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>25</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>134.44245309468968</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>25</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>160.51367590178546</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>25</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>234.65388139017</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>25</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>2028.0646989582699</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>25</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>125.580170974119</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>26</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>486684483.30910349</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>26</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>488512224.13020629</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>26</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>487848924.16858548</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>26</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>487022310.97716844</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>487281088.05314189</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>26</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>486643947.33041513</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>26</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>488153275.20303386</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>26</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>488648196.97887468</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>26</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>146.49213425166559</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>26</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>299.45876977210997</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>26</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>1771.74429571408</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>26</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>131.54387603794399</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>478842954.54455543</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>27</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>473528110.82683855</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>27</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>473415466.45893699</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>477702862.95040172</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>472375420.17147332</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>475871299.80503374</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>27</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>472455320.95090884</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>27</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>474925415.12995273</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>470545512.33477443</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>470480374.43619257</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>481986746.7102406</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>471823244.68478036</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>474475465.86062998</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>471981943.42375988</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>476926578.57870519</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>474185003.5740937</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>471006107.56969631</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>471191601.23437363</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>471874334.02358758</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>474394472.78735912</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>471928529.15251637</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>471542621.10096604</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>481620616.05309063</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>476626987.68991524</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>471504370.57629746</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>470154587.82912368</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>469718570.72801596</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>470077058.53593528</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>484121878.61049515</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>470796815.408216</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>27</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>470284994.87919235</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>27</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>152.17812279405388</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>27</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>197.04509558832601</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>1709.769559936</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>154.03061261006499</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>28</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>494494886.92420936</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>28</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>491069312.27925116</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>28</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>493795283.50767612</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>28</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>492222635.56919897</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>28</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>189.93450593075138</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>28</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>240.88861832260699</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>28</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>1604.15658234839</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>28</v>
       </c>
@@ -13631,24 +13631,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA47E84-2BA4-4920-8D41-BEB4455371F7}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>121.0258526877853</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>1368.8602380034499</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>15.1256923470008</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>69.413540065815198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1260.2174267588434</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>172.087312472745</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>586.31441139351159</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>1677.11523497743</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>26.939974851498999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>153.022423955672</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>204.80396505145384</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>2226.32601294287</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>118.123922902488</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>260.38958172027299</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>1662.8030748741701</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>107.89110293404001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>113.971148678001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>135.41642744283266</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>130.07030457993599</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>1482.4395999753872</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>1759.0525920011401</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>162.31847804357901</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>203.49244083868166</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>2180.6458584704801</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>132.088671175543</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>448.58746512575021</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>1818.7482179082101</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>144.80815154387099</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>1604.4657372398781</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>1894.63662684</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>141.97117451491499</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>233.44376580281497</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>1837.95639037007</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>140.71773853648</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>1212.8378017491536</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>168.263386674836</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>633.61551583828691</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>2035.0296867556101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>33.419304368927101</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>126.21226570368501</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>98.695009072544877</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>93.666259072337397</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>1701.6399978534944</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>1929.4742386059499</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -14421,15 +14421,18 @@
         <v>154.34582974967401</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>352.18303981512275</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>2028.0646989582699</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>125.580170974119</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -14501,7 +14504,7 @@
         <v>660.71527977069638</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -14515,7 +14518,7 @@
         <v>1771.74429571408</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -14529,7 +14532,7 @@
         <v>131.54387603794399</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -14551,7 +14554,7 @@
         <v>1483.7203120427312</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -14565,7 +14568,7 @@
         <v>1709.769559936</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -14579,7 +14582,7 @@
         <v>154.03061261006499</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>1187.0341034391793</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>1604.15658234839</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -14627,12 +14630,6 @@
       </c>
       <c r="D78" s="1">
         <v>135.72854005158399</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="1">
-        <f>SUM(F2:F76)</f>
-        <v>79.253780688355093</v>
       </c>
     </row>
   </sheetData>
@@ -14648,7 +14645,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -14656,10 +14653,10 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14685,7 +14682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14712,7 +14709,7 @@
         <v>5009930.6323048342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -14739,7 +14736,7 @@
         <v>10936057.601876123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -14766,7 +14763,7 @@
         <v>19627905.529177781</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -14793,7 +14790,7 @@
         <v>31450431.139389578</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -14820,7 +14817,7 @@
         <v>22188303.914211687</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -14847,7 +14844,7 @@
         <v>10496107.197248897</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -14874,7 +14871,7 @@
         <v>50755786.994701758</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -14901,7 +14898,7 @@
         <v>93300478.559052825</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -14928,7 +14925,7 @@
         <v>69536452.794424444</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -14955,7 +14952,7 @@
         <v>50075817.763940178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -14982,7 +14979,7 @@
         <v>44556212.252023272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -15009,7 +15006,7 @@
         <v>25358748.879618235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -15036,7 +15033,7 @@
         <v>118542108.62730062</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -15063,7 +15060,7 @@
         <v>25414508.360665992</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -15090,7 +15087,7 @@
         <v>69138367.156562582</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -15117,7 +15114,7 @@
         <v>13046644.680062925</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -15144,7 +15141,7 @@
         <v>51366670.550769977</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -15171,7 +15168,7 @@
         <v>20868692.726801947</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -15198,7 +15195,7 @@
         <v>77060858.70990774</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
